--- a/RUDN/Importance/Varible_muatal_in_Micronesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Micronesia.xlsx
@@ -199,6 +199,9 @@
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Population ages 0-14, male</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
@@ -223,18 +223,18 @@
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -343,6 +343,9 @@
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
@@ -352,9 +355,6 @@
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
@@ -373,18 +373,18 @@
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
@@ -466,24 +466,24 @@
     <t>Male population 05-09</t>
   </si>
   <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
@@ -691,12 +691,12 @@
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
     <t>Male population 00-04</t>
   </si>
   <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
@@ -706,15 +706,15 @@
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
@@ -787,15 +787,15 @@
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
@@ -919,10 +919,10 @@
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.42073551020941</v>
+        <v>1.4237117006856</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.138424071647972</v>
+        <v>1.141159233311706</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.133171784252827</v>
+        <v>1.138424071647972</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.129880730068916</v>
+        <v>1.133171784252827</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.126278280930753</v>
+        <v>1.129880730068916</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.119721841338599</v>
+        <v>1.112830617483089</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.112830617483089</v>
+        <v>1.110319388632575</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.110319388632575</v>
+        <v>1.10935651222327</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.10935651222327</v>
+        <v>1.107817079433837</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.075625164206207</v>
+        <v>1.084553735634779</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9545065011232587</v>
+        <v>0.955047329342658</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9525324830778117</v>
+        <v>0.9545065011232587</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9496325060706925</v>
+        <v>0.9525324830778117</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9461187579140868</v>
+        <v>0.9496325060706925</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9134931493956215</v>
+        <v>0.9122334963502539</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9122334963502539</v>
+        <v>0.9100850495589503</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9100850495589503</v>
+        <v>0.90608017546479</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.90608017546479</v>
+        <v>0.9015883874908597</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.8210478962360825</v>
+        <v>0.8261499370524088</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8048323943566285</v>
+        <v>0.8067076729672875</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8016056321509613</v>
+        <v>0.8048323943566285</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.7735477773073921</v>
+        <v>0.7684457364910654</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.7664611139707285</v>
+        <v>0.7628896853992999</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.7407102775056065</v>
+        <v>0.7452444833790981</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.7406897623065198</v>
+        <v>0.7407102775056065</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.7392723305319452</v>
+        <v>0.7406897623065198</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.7392723305319452</v>
+        <v>0.7402028484267487</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.738101626236241</v>
+        <v>0.7392723305319452</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.7366314198553201</v>
+        <v>0.7392723305319452</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.6034052214505499</v>
+        <v>0.6112259721284441</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6022974006998725</v>
+        <v>0.6034052214505499</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.5685432784215907</v>
+        <v>0.5694682259064123</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.5623253687635552</v>
+        <v>0.563441237605264</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.524589691742164</v>
+        <v>0.5150658822183545</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.4903869896823188</v>
+        <v>0.490292540480727</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.490292540480727</v>
+        <v>0.4880253632135489</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.4880253632135489</v>
+        <v>0.4859227039680327</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3356837590526514</v>
+        <v>0.3376678860367783</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.234648609033776</v>
+        <v>0.234273701169049</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3733,7 +3733,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.234273701169049</v>
+        <v>0.2275057518909189</v>
       </c>
     </row>
     <row r="305" spans="1:2">
